--- a/Inputs/JRC_EU_TIMES/NearZeroCarbon/TIMES_H2_Demand_PtL_2050.xlsx
+++ b/Inputs/JRC_EU_TIMES/NearZeroCarbon/TIMES_H2_Demand_PtL_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eva\Downloads\MASTER\TFE\DispaSET-SideTools\Inputs\JRC_EU_TIMES\NearZeroCarbon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C1FD090-C784-407B-B1BB-0F9585D63200}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F4496A3-B9D3-4E76-85B0-2AAA34B22AC0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2E73ECD9-43F9-4735-9472-87E83E84CAE3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E47E1876-BAE1-41A3-9E98-9487468E59FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Process Description1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t>PJ</t>
   </si>
   <si>
     <t>Region</t>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Supply convert CCS emission to Methanol supplied by H2</t>
-  </si>
-  <si>
-    <t>Supply convert CCS emission to Methanol supplied by H2 LowAF</t>
   </si>
   <si>
     <t>AT</t>
@@ -188,17 +185,17 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
@@ -514,10 +511,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA3903C-B2A2-48A6-A5AC-F22AB9C1890D}">
-  <dimension ref="A1:E30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9403C5D8-9C76-4D9A-A433-F9D35792DCD4}">
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -525,37 +524,32 @@
     <col min="2" max="2" width="37.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>44.234000000000002</v>
@@ -563,13 +557,10 @@
       <c r="D3" s="1">
         <v>23.319000000000003</v>
       </c>
-      <c r="E3" s="1">
-        <v>6.4769999999999994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>13.867000000000001</v>
@@ -577,13 +568,10 @@
       <c r="D4" s="1">
         <v>131.06700000000001</v>
       </c>
-      <c r="E4" s="1">
-        <v>40.566000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>25.835999999999999</v>
@@ -591,13 +579,10 @@
       <c r="D5" s="1">
         <v>2.3889999999999998</v>
       </c>
-      <c r="E5" s="1">
-        <v>0.66300000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>43.33</v>
@@ -605,13 +590,10 @@
       <c r="D6" s="1">
         <v>4.1369999999999996</v>
       </c>
-      <c r="E6" s="1">
-        <v>1.149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>15.382999999999999</v>
@@ -619,13 +601,10 @@
       <c r="D7" s="1">
         <v>29.042999999999999</v>
       </c>
-      <c r="E7" s="1">
-        <v>8.0670000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
         <v>63.63</v>
@@ -633,13 +612,10 @@
       <c r="D8" s="1">
         <v>366.03400000000005</v>
       </c>
-      <c r="E8" s="1">
-        <v>103.211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>80.440000000000012</v>
@@ -647,13 +623,10 @@
       <c r="D9" s="1">
         <v>1.0209999999999999</v>
       </c>
-      <c r="E9" s="1">
-        <v>0.28399999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>3.6970000000000001</v>
@@ -661,13 +634,10 @@
       <c r="D10" s="1">
         <v>0.41699999999999998</v>
       </c>
-      <c r="E10" s="1">
-        <v>0.115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
         <v>139.80900000000003</v>
@@ -675,13 +645,10 @@
       <c r="D11" s="1">
         <v>3.4950000000000001</v>
       </c>
-      <c r="E11" s="1">
-        <v>0.97099999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
         <v>435.76800000000003</v>
@@ -689,13 +656,10 @@
       <c r="D12" s="1">
         <v>32.366999999999997</v>
       </c>
-      <c r="E12" s="1">
-        <v>8.9909999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>79.203999999999994</v>
@@ -703,13 +667,10 @@
       <c r="D13" s="1">
         <v>6.7219999999999995</v>
       </c>
-      <c r="E13" s="1">
-        <v>1.867</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
         <v>496.21500000000003</v>
@@ -717,13 +678,10 @@
       <c r="D14" s="1">
         <v>119.325</v>
       </c>
-      <c r="E14" s="1">
-        <v>33.144999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
         <v>8.027000000000001</v>
@@ -731,13 +689,10 @@
       <c r="D15" s="1">
         <v>0.50900000000000001</v>
       </c>
-      <c r="E15" s="1">
-        <v>0.14099999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1">
         <v>16.75</v>
@@ -745,13 +700,10 @@
       <c r="D16" s="1">
         <v>13.209000000000001</v>
       </c>
-      <c r="E16" s="1">
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1">
         <v>1.6649999999999998</v>
@@ -760,9 +712,9 @@
         <v>0.44899999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
         <v>396.26</v>
@@ -770,13 +722,10 @@
       <c r="D18" s="1">
         <v>94.149000000000001</v>
       </c>
-      <c r="E18" s="1">
-        <v>26.152000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1">
         <v>7.7119999999999997</v>
@@ -784,13 +733,10 @@
       <c r="D19" s="1">
         <v>1.0820000000000001</v>
       </c>
-      <c r="E19" s="1">
-        <v>0.30099999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1">
         <v>5.0220000000000002</v>
@@ -798,13 +744,10 @@
       <c r="D20" s="1">
         <v>0.214</v>
       </c>
-      <c r="E20" s="1">
-        <v>5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>25.436999999999998</v>
@@ -812,21 +755,18 @@
       <c r="D21" s="1">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="E21" s="1">
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1">
         <v>1.4900000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1">
         <v>26.045999999999999</v>
@@ -834,13 +774,10 @@
       <c r="D23" s="1">
         <v>216.41</v>
       </c>
-      <c r="E23" s="1">
-        <v>62.201999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1">
         <v>81.061000000000007</v>
@@ -848,13 +785,10 @@
       <c r="D24" s="1">
         <v>41.198</v>
       </c>
-      <c r="E24" s="1">
-        <v>11.440999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1">
         <v>83.846000000000004</v>
@@ -862,13 +796,10 @@
       <c r="D25" s="1">
         <v>40.243000000000002</v>
       </c>
-      <c r="E25" s="1">
-        <v>11.472</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1">
         <v>32.222999999999999</v>
@@ -876,13 +807,10 @@
       <c r="D26" s="1">
         <v>4.7350000000000003</v>
       </c>
-      <c r="E26" s="1">
-        <v>1.3149999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1">
         <v>105.334</v>
@@ -890,13 +818,10 @@
       <c r="D27" s="1">
         <v>7.2089999999999996</v>
       </c>
-      <c r="E27" s="1">
-        <v>2.0030000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="1">
         <v>4.8689999999999998</v>
@@ -904,13 +829,10 @@
       <c r="D28" s="1">
         <v>0.374</v>
       </c>
-      <c r="E28" s="1">
-        <v>0.104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="1">
         <v>3.0269999999999997</v>
@@ -918,13 +840,10 @@
       <c r="D29" s="1">
         <v>13.219000000000001</v>
       </c>
-      <c r="E29" s="1">
-        <v>3.5919999999999996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1">
         <v>627.62799999999993</v>
@@ -932,14 +851,12 @@
       <c r="D30" s="1">
         <v>40.930000000000007</v>
       </c>
-      <c r="E30" s="1">
-        <v>11.369</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>